--- a/PSM_SystemTestCases.xlsx
+++ b/PSM_SystemTestCases.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Report" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="416">
   <si>
     <t>1. Login form</t>
   </si>
@@ -624,15 +624,6 @@
 " Xóa Studio thành công"</t>
   </si>
   <si>
-    <t>4. Quản lí Studio ( Admin )</t>
-  </si>
-  <si>
-    <t>3. Quản lý nhân viên ( Admin )</t>
-  </si>
-  <si>
-    <t>5. Quản lí tỉnh thành ( Admin )</t>
-  </si>
-  <si>
     <t>STC-038</t>
   </si>
   <si>
@@ -706,9 +697,6 @@
   <si>
     <t>Successful notification : 
 " Quận / Huyện đã xóa thành công"</t>
-  </si>
-  <si>
-    <t>6. Thông tin Studio ( Manager )</t>
   </si>
   <si>
     <t>STC-044</t>
@@ -978,9 +966,6 @@
     <t>STC-053</t>
   </si>
   <si>
-    <t>7. Quản lí gói chụp ảnh ( Manager )</t>
-  </si>
-  <si>
     <t>Add Package : 
 Tên gói chụp ảnh : Empty
 Chi tiết gói chụp ảnh : Empty
@@ -1110,9 +1095,6 @@
 " Xóa gói chụp ảnh thành công"</t>
   </si>
   <si>
-    <t>8. Quản lí ảnh ( Manager )</t>
-  </si>
-  <si>
     <t>STC-058</t>
   </si>
   <si>
@@ -1212,9 +1194,6 @@
   </si>
   <si>
     <t>STC-068</t>
-  </si>
-  <si>
-    <t>9. Quản lí hợp đồng ( Manager )</t>
   </si>
   <si>
     <t>Search Contract : 
@@ -1478,116 +1457,345 @@
     <t>Home Page will be display</t>
   </si>
   <si>
+    <t>STC-088</t>
+  </si>
+  <si>
+    <t>View Studio List</t>
+  </si>
+  <si>
+    <t>Click on Studio button on header</t>
+  </si>
+  <si>
+    <t>Studio List will be display</t>
+  </si>
+  <si>
+    <t>STC-089</t>
+  </si>
+  <si>
+    <t>View Studio Detail</t>
+  </si>
+  <si>
+    <t>Click on Studio option on Studio dropdown list on header</t>
+  </si>
+  <si>
+    <t>Studio Detail will be display</t>
+  </si>
+  <si>
+    <t>STC-090</t>
+  </si>
+  <si>
+    <t>View Sample Picture</t>
+  </si>
+  <si>
+    <t>Click on Picture to Zoom in to view</t>
+  </si>
+  <si>
+    <t>Picture will zoom in</t>
+  </si>
+  <si>
+    <t>STC-091</t>
+  </si>
+  <si>
+    <t>STC-092</t>
+  </si>
+  <si>
+    <t>Show Package Detail</t>
+  </si>
+  <si>
+    <t>Click on read more button</t>
+  </si>
+  <si>
+    <t>Add Package to cart</t>
+  </si>
+  <si>
+    <t>Click on Cart icon</t>
+  </si>
+  <si>
+    <t>Package will add to cart</t>
+  </si>
+  <si>
+    <t>Home Page is display</t>
+  </si>
+  <si>
+    <t>Studio List is display</t>
+  </si>
+  <si>
+    <t>Studio Detail is display</t>
+  </si>
+  <si>
+    <t>Picture is zoom in</t>
+  </si>
+  <si>
+    <t>Package is add to cart</t>
+  </si>
+  <si>
+    <t>STC-093</t>
+  </si>
+  <si>
+    <t>View Album of Studio</t>
+  </si>
+  <si>
+    <t>Album page will be displat</t>
+  </si>
+  <si>
+    <t>Album page is display</t>
+  </si>
+  <si>
+    <t>STC-094</t>
+  </si>
+  <si>
+    <t>10. Web Page ( Customer )</t>
+  </si>
+  <si>
+    <t>STC-095</t>
+  </si>
+  <si>
+    <t>STC-096</t>
+  </si>
+  <si>
+    <t>View Contract:
+Search field : Empty</t>
+  </si>
+  <si>
     <t>Enter link on web browser
 Click on Trang Chủ button on header
 Click on Logo on header</t>
   </si>
   <si>
-    <t>STC-088</t>
-  </si>
-  <si>
-    <t>View Studio List</t>
-  </si>
-  <si>
-    <t>Click on Studio button on header</t>
-  </si>
-  <si>
-    <t>Studio List will be display</t>
-  </si>
-  <si>
-    <t>STC-089</t>
-  </si>
-  <si>
-    <t>View Studio Detail</t>
-  </si>
-  <si>
-    <t>Click on Studio option on Studio dropdown list on header</t>
-  </si>
-  <si>
-    <t>Studio Detail will be display</t>
-  </si>
-  <si>
-    <t>STC-090</t>
-  </si>
-  <si>
-    <t>View Sample Picture</t>
-  </si>
-  <si>
-    <t>Click on Picture to Zoom in to view</t>
-  </si>
-  <si>
-    <t>Picture will zoom in</t>
-  </si>
-  <si>
-    <t>STC-091</t>
-  </si>
-  <si>
-    <t>STC-092</t>
-  </si>
-  <si>
-    <t>Show Package Detail</t>
-  </si>
-  <si>
-    <t>Click on read more button</t>
-  </si>
-  <si>
-    <t>Add Package to cart</t>
-  </si>
-  <si>
-    <t>Click on Cart icon</t>
-  </si>
-  <si>
-    <t>Package will add to cart</t>
-  </si>
-  <si>
-    <t>Home Page is display</t>
-  </si>
-  <si>
-    <t>Studio List is display</t>
-  </si>
-  <si>
-    <t>Studio Detail is display</t>
-  </si>
-  <si>
-    <t>Picture is zoom in</t>
-  </si>
-  <si>
-    <t>Package is add to cart</t>
-  </si>
-  <si>
-    <t>STC-093</t>
-  </si>
-  <si>
-    <t>View Album of Studio</t>
-  </si>
-  <si>
     <t>Click on Album button on header.
 Click on Album list dropdown list.</t>
   </si>
   <si>
-    <t>Album page will be displat</t>
-  </si>
-  <si>
-    <t>Album page is display</t>
-  </si>
-  <si>
-    <t>STC-094</t>
-  </si>
-  <si>
-    <t>Album page will be display</t>
-  </si>
-  <si>
-    <t>10. Web Page ( Customer )</t>
-  </si>
-  <si>
-    <t>View Contract</t>
+    <t>1. Click on Contract button on header.
+2. Empty search field
+3.Click on Tìm button</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Hợp đồng không tồn tại "</t>
+  </si>
+  <si>
+    <t>View Contract:
+Search field : 1</t>
+  </si>
+  <si>
+    <t>View Contract:
+Search field : 0</t>
+  </si>
+  <si>
+    <t>1. Click on Contract button on header.
+2. Enter 0 number on search field
+3.Click on Tìm button</t>
+  </si>
+  <si>
+    <t>Example 0 is not esxit contract ID</t>
+  </si>
+  <si>
+    <t>1. Click on Contract button on header.
+2. Enter 1 number on search field
+3.Click on Tìm button</t>
+  </si>
+  <si>
+    <t>Contract have Contract ID is 1 wil be display</t>
+  </si>
+  <si>
+    <t>Contract have Contract ID = 1 was displayed.</t>
+  </si>
+  <si>
+    <t>Example 1 is esxit contract ID</t>
+  </si>
+  <si>
+    <t>Open Cart</t>
+  </si>
+  <si>
+    <t>Click on Open Cart button</t>
+  </si>
+  <si>
+    <t>Cart Page wil be display</t>
+  </si>
+  <si>
+    <t>Cart Page was displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Package:
+Customer Name field : Empty
+Customer Phone field : Empty
+</t>
+  </si>
+  <si>
+    <t>1. Empty Customer Name field.
+2. Empty Customer Phone field.
+3. Click on Buy button</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Tên khách hàng không được để trống "
+" Số ĐT không được để trống "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Package:
+Customer Name field : @!#
+Customer Phone field : abc
+</t>
+  </si>
+  <si>
+    <t>1. Enter " @!# " character on Customer Name field.
+2. Enter " abc " character on Customer Phone field.
+3. Click on Buy button</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Tên khách hàng không được chứa kí tự đặc biệt "
+" Số ĐT Khách hàng phải là số "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Package:
+Customer Name field : aaaaaaa
+Customer Phone field : 01
+</t>
+  </si>
+  <si>
+    <t>1. Enter " aaaaaaa " character on Customer Name field.
+2. Enter " 01 " character on Customer Phone field.
+3. Click on Buy button</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Số ĐT Khách hàng phải từ 8 tới 12 kí tự "</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Reviewer/Approver</t>
+  </si>
+  <si>
+    <t>Document Code</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Function code</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>Total Test Cases</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>Test coverage</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Test successful coverage</t>
+  </si>
+  <si>
+    <t>System Test Report</t>
+  </si>
+  <si>
+    <t>Photographic Studio Management</t>
+  </si>
+  <si>
+    <t>DungPT</t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>LamPT2</t>
+  </si>
+  <si>
+    <t>PSM_SystemTestCase.xlsx</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Studio Page</t>
+  </si>
+  <si>
+    <t>Pass / Fail / 
+Untested / Cannot test</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>3. User Management ( Admin )</t>
+  </si>
+  <si>
+    <t>4. Studio Management ( Admin )</t>
+  </si>
+  <si>
+    <t>5. District Management ( Admin )</t>
+  </si>
+  <si>
+    <t>6. Studio Profile ( Manager )</t>
+  </si>
+  <si>
+    <t>7. Package Management ( Manager )</t>
+  </si>
+  <si>
+    <t>8. Picture Management ( Manager )</t>
+  </si>
+  <si>
+    <t>9. Contract Management ( Manager )</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>StudioManagement</t>
+  </si>
+  <si>
+    <t>District Management</t>
+  </si>
+  <si>
+    <t>Studio Profile</t>
+  </si>
+  <si>
+    <t>Package Management</t>
+  </si>
+  <si>
+    <t>Picture Management</t>
+  </si>
+  <si>
+    <t>Contract Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1629,8 +1837,102 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="60"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="17"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1643,8 +1945,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1746,11 +2066,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1836,9 +2299,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Functional Test Case v1.0" xfId="2"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2130,29 +2690,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1">
+    <row r="1" spans="1:8" ht="27" thickBot="1">
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="26.25" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2172,10 +2733,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75.75" thickBot="1">
+    <row r="3" spans="1:8" ht="75.75" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2189,16 +2753,19 @@
         <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90.75" thickBot="1">
+    <row r="4" spans="1:8" ht="90.75" thickBot="1">
       <c r="A4" s="7">
         <f>A3+1</f>
         <v>2</v>
@@ -2213,16 +2780,19 @@
         <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90.75" thickBot="1">
+    <row r="5" spans="1:8" ht="90.75" thickBot="1">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A9" si="0">A4+1</f>
         <v>3</v>
@@ -2237,16 +2807,19 @@
         <v>19</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105.75" thickBot="1">
+    <row r="6" spans="1:8" ht="105.75" thickBot="1">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2261,16 +2834,19 @@
         <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105.75" thickBot="1">
+    <row r="7" spans="1:8" ht="105.75" thickBot="1">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2285,16 +2861,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="105.75" thickBot="1">
+    <row r="8" spans="1:8" ht="105.75" thickBot="1">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2309,16 +2888,19 @@
         <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105.75" thickBot="1">
+    <row r="9" spans="1:8" ht="105.75" thickBot="1">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2338,20 +2920,23 @@
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1">
+    <row r="11" spans="1:8" ht="27" thickBot="1">
       <c r="A11" s="9"/>
       <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="12" spans="1:8" ht="26.25" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
@@ -2371,10 +2956,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75.75" thickBot="1">
+    <row r="13" spans="1:8" ht="75.75" thickBot="1">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -2388,16 +2976,19 @@
         <v>37</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90.75" thickBot="1">
+    <row r="14" spans="1:8" ht="90.75" thickBot="1">
       <c r="A14" s="7">
         <f t="shared" ref="A14:A19" si="1">A13+1</f>
         <v>2</v>
@@ -2412,16 +3003,19 @@
         <v>39</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90.75" thickBot="1">
+    <row r="15" spans="1:8" ht="90.75" thickBot="1">
       <c r="A15" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2436,16 +3030,19 @@
         <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="120.75" thickBot="1">
+    <row r="16" spans="1:8" ht="120.75" thickBot="1">
       <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2460,16 +3057,19 @@
         <v>45</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="120.75" thickBot="1">
+    <row r="17" spans="1:8" ht="120.75" thickBot="1">
       <c r="A17" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2484,16 +3084,19 @@
         <v>48</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="135.75" thickBot="1">
+    <row r="18" spans="1:8" ht="135.75" thickBot="1">
       <c r="A18" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2508,16 +3111,19 @@
         <v>51</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="135.75" thickBot="1">
+    <row r="19" spans="1:8" ht="135.75" thickBot="1">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2537,17 +3143,20 @@
       <c r="F19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1">
+    <row r="21" spans="1:8" ht="27" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26.25" thickBot="1">
       <c r="A22" s="13" t="s">
         <v>1</v>
       </c>
@@ -2567,10 +3176,13 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45.75" thickBot="1">
+    <row r="23" spans="1:8" ht="45.75" thickBot="1">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -2589,11 +3201,14 @@
       <c r="F23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60.75" thickBot="1">
+    <row r="24" spans="1:8" ht="60.75" thickBot="1">
       <c r="A24" s="7">
         <f>A23+1</f>
         <v>2</v>
@@ -2608,16 +3223,19 @@
         <v>109</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60.75" thickBot="1">
+    <row r="25" spans="1:8" ht="60.75" thickBot="1">
       <c r="A25" s="7">
         <f t="shared" ref="A25:A26" si="2">A24+1</f>
         <v>3</v>
@@ -2637,11 +3255,14 @@
       <c r="F25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="105.75" thickBot="1">
+    <row r="26" spans="1:8" ht="105.75" thickBot="1">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2656,16 +3277,17 @@
         <v>78</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="120.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="120.75" thickBot="1">
       <c r="A27" s="7">
         <f t="shared" ref="A27:A33" si="3">A26+1</f>
         <v>5</v>
@@ -2680,16 +3302,17 @@
         <v>79</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="120.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="120.75" thickBot="1">
       <c r="A28" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2704,16 +3327,17 @@
         <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="120.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="120.75" thickBot="1">
       <c r="A29" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2728,16 +3352,17 @@
         <v>81</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="135.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="135.75" thickBot="1">
       <c r="A30" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2758,10 +3383,11 @@
         <v>76</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="90.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="90.75" thickBot="1">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2776,16 +3402,17 @@
         <v>84</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="105.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="105.75" thickBot="1">
       <c r="A32" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2800,16 +3427,17 @@
         <v>87</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="105.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="105.75" thickBot="1">
       <c r="A33" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2830,16 +3458,17 @@
         <v>92</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="27" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="27" thickBot="1">
       <c r="B35" s="12"/>
       <c r="C35" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="26.25" thickBot="1">
       <c r="A36" s="13" t="s">
         <v>1</v>
       </c>
@@ -2859,10 +3488,13 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45.75" thickBot="1">
+    <row r="37" spans="1:8" ht="45.75" thickBot="1">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -2881,11 +3513,14 @@
       <c r="F37" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60.75" thickBot="1">
+    <row r="38" spans="1:8" ht="60.75" thickBot="1">
       <c r="A38" s="7">
         <f>A37+1</f>
         <v>2</v>
@@ -2900,16 +3535,19 @@
         <v>109</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60.75" thickBot="1">
+    <row r="39" spans="1:8" ht="60.75" thickBot="1">
       <c r="A39" s="7">
         <f t="shared" ref="A39:A46" si="4">A38+1</f>
         <v>3</v>
@@ -2929,11 +3567,14 @@
       <c r="F39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="225.75" thickBot="1">
+    <row r="40" spans="1:8" ht="225.75" thickBot="1">
       <c r="A40" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2948,16 +3589,17 @@
         <v>116</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="300.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" ht="300.75" thickBot="1">
       <c r="A41" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2972,16 +3614,17 @@
         <v>118</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="345.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" ht="345.75" thickBot="1">
       <c r="A42" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2996,16 +3639,17 @@
         <v>120</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="330.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" ht="330.75" thickBot="1">
       <c r="A43" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -3026,10 +3670,11 @@
         <v>123</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="90.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="90.75" thickBot="1">
       <c r="A44" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -3044,16 +3689,17 @@
         <v>125</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="240.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="240.75" thickBot="1">
       <c r="A45" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -3068,16 +3714,17 @@
         <v>127</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="165.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="165.75" thickBot="1">
       <c r="A46" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -3092,16 +3739,17 @@
         <v>129</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="240.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" ht="240.75" thickBot="1">
       <c r="A47" s="7">
         <f>A46+1</f>
         <v>11</v>
@@ -3122,10 +3770,11 @@
         <v>132</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="7">
         <f>A47+1</f>
         <v>12</v>
@@ -3146,16 +3795,17 @@
         <v>136</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="53.25" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="50" spans="1:8" ht="79.5" thickBot="1">
       <c r="B50" s="12"/>
       <c r="C50" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="26.25" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>1</v>
       </c>
@@ -3175,157 +3825,170 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45.75" thickBot="1">
+    <row r="52" spans="1:8" ht="45.75" thickBot="1">
       <c r="A52" s="7">
         <f>A48+1</f>
         <v>13</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="90.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" ht="90.75" thickBot="1">
       <c r="A53" s="7">
         <f>A52+1</f>
         <v>14</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="90.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" ht="90.75" thickBot="1">
       <c r="A54" s="7">
         <f>A53+1</f>
         <v>15</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="105.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" ht="105.75" thickBot="1">
       <c r="A55" s="7">
         <f>A54+1</f>
         <v>16</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="105.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" ht="105.75" thickBot="1">
       <c r="A56" s="7">
         <f>A55+1</f>
         <v>17</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="F56" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" ht="30.75" thickBot="1">
       <c r="A57" s="7">
         <f>A56+1</f>
         <v>18</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="F57" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="53.25" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="1:8" ht="79.5" thickBot="1">
       <c r="C59" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
+        <v>405</v>
+      </c>
+      <c r="G59" s="66"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="13" t="s">
         <v>1</v>
       </c>
@@ -3344,100 +4007,107 @@
       <c r="F60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="255">
+    <row r="61" spans="1:8" ht="255">
       <c r="A61" s="23">
         <v>1</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H61" s="64"/>
+    </row>
+    <row r="62" spans="1:8" ht="30.75" thickBot="1">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" spans="1:7" ht="240.75" thickBot="1">
+        <v>159</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" ht="240.75" thickBot="1">
       <c r="A63" s="7">
         <f>A61+1</f>
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="150.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:8" ht="150.75" thickBot="1">
       <c r="A64" s="7">
         <f>A63+1</f>
         <v>3</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="79.5" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="66" spans="1:8" ht="79.5" thickBot="1">
       <c r="C66" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="26.25" thickBot="1">
       <c r="A67" s="13" t="s">
         <v>1</v>
       </c>
@@ -3457,281 +4127,301 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45.75" thickBot="1">
+    <row r="68" spans="1:8" ht="45.75" thickBot="1">
       <c r="A68" s="7">
         <v>1</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="60.75" thickBot="1">
+        <v>172</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60.75" thickBot="1">
       <c r="A69" s="7">
         <f>A68+1</f>
         <v>2</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60.75" thickBot="1">
+        <v>207</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="60.75" thickBot="1">
       <c r="A70" s="7">
         <f t="shared" ref="A70:A78" si="5">A69+1</f>
         <v>3</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="180.75" thickBot="1">
+        <v>173</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="180.75" thickBot="1">
       <c r="A71" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="105.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" ht="105.75" thickBot="1">
       <c r="A72" s="7">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="60.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:8" ht="60.75" thickBot="1">
       <c r="A73" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="165.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" ht="165.75" thickBot="1">
       <c r="A74" s="7">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="90.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:8" ht="90.75" thickBot="1">
       <c r="A75" s="7">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="105.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:8" ht="105.75" thickBot="1">
       <c r="A76" s="7">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="150.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" ht="150.75" thickBot="1">
       <c r="A77" s="7">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8" ht="30.75" thickBot="1">
       <c r="A78" s="7">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>401</v>
+      </c>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:7" ht="53.25" thickBot="1">
+    <row r="80" spans="1:8" ht="79.5" thickBot="1">
       <c r="C80" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="26.25" thickBot="1">
       <c r="A81" s="13" t="s">
         <v>1</v>
       </c>
@@ -3751,254 +4441,285 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45.75" thickBot="1">
+    <row r="82" spans="1:8" ht="45.75" thickBot="1">
       <c r="A82" s="7">
         <v>1</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60.75" thickBot="1">
+        <v>240</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60.75" thickBot="1">
       <c r="A83" s="7">
         <f>A82+1</f>
         <v>2</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="60.75" thickBot="1">
+        <v>244</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60.75" thickBot="1">
       <c r="A84" s="7">
         <f t="shared" ref="A84:A91" si="6">A83+1</f>
         <v>3</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="45.75" thickBot="1">
+        <v>243</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45.75" thickBot="1">
       <c r="A85" s="7">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="60.75" thickBot="1">
+        <v>243</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="60.75" thickBot="1">
       <c r="A86" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="60.75" thickBot="1">
+        <v>244</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60.75" thickBot="1">
       <c r="A87" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="45.75" thickBot="1">
+        <v>250</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45.75" thickBot="1">
       <c r="A88" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="60.75" thickBot="1">
+        <v>254</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60.75" thickBot="1">
       <c r="A89" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="60.75" thickBot="1">
+        <v>258</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="60.75" thickBot="1">
       <c r="A90" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="105.75" thickBot="1">
+        <v>262</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="105.75" thickBot="1">
       <c r="A91" s="7">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="53.25" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="93" spans="1:8" ht="79.5" thickBot="1">
       <c r="C93" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="26.25" thickBot="1">
       <c r="A94" s="13" t="s">
         <v>1</v>
       </c>
@@ -4018,470 +4739,510 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45.75" thickBot="1">
+    <row r="95" spans="1:8" ht="45.75" thickBot="1">
       <c r="A95" s="7">
         <v>1</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60.75" thickBot="1">
+        <v>269</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="60.75" thickBot="1">
       <c r="A96" s="7">
         <f>A95+1</f>
         <v>2</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="60.75" thickBot="1">
+        <v>271</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="60.75" thickBot="1">
       <c r="A97" s="7">
         <f t="shared" ref="A97:A109" si="7">A96+1</f>
         <v>3</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="45.75" thickBot="1">
+        <v>274</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="45.75" thickBot="1">
       <c r="A98" s="7">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="60.75" thickBot="1">
+        <v>269</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="60.75" thickBot="1">
       <c r="A99" s="7">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="60.75" thickBot="1">
+        <v>275</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="60.75" thickBot="1">
       <c r="A100" s="7">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="45.75" thickBot="1">
+        <v>271</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="45.75" thickBot="1">
       <c r="A101" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H101" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="60.75" thickBot="1">
+    </row>
+    <row r="102" spans="1:8" ht="60.75" thickBot="1">
       <c r="A102" s="7">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="60.75" thickBot="1">
+        <v>271</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="60.75" thickBot="1">
       <c r="A103" s="7">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="409.6" thickBot="1">
+        <v>278</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="409.6" thickBot="1">
       <c r="A104" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="300.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:8" ht="300.75" thickBot="1">
       <c r="A105" s="7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="165.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8" ht="165.75" thickBot="1">
       <c r="A106" s="7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="165.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8" ht="165.75" thickBot="1">
       <c r="A107" s="7">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="315.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8" ht="315.75" thickBot="1">
       <c r="A108" s="7">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="409.6" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="1:8" ht="409.6" thickBot="1">
       <c r="A109" s="7">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="300.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" ht="300.75" thickBot="1">
       <c r="A110" s="7">
         <f>A109+1</f>
         <v>16</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="165.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8" ht="165.75" thickBot="1">
       <c r="A111" s="7">
         <f>A110+1</f>
         <v>17</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="165.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8" ht="165.75" thickBot="1">
       <c r="A112" s="7">
         <f>A111+1</f>
         <v>18</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="315.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8" ht="315.75" thickBot="1">
       <c r="A113" s="7">
         <f>A112+1</f>
         <v>19</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="53.25" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H113" s="14"/>
+    </row>
+    <row r="115" spans="1:8" ht="53.25" thickBot="1">
       <c r="C115" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" thickBot="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="26.25" thickBot="1">
       <c r="A116" s="13" t="s">
         <v>1</v>
       </c>
@@ -4501,198 +5262,363 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="60.75" thickBot="1">
+    <row r="117" spans="1:8" ht="90.75" thickBot="1">
       <c r="A117" s="7">
         <v>1</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="7">
-        <f t="shared" ref="A118:A124" si="8">A117+1</f>
+        <f t="shared" ref="A118:A130" si="8">A117+1</f>
         <v>2</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="45.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="1:8" ht="45.75" thickBot="1">
       <c r="A119" s="7">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>330</v>
+        <v>321</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="7">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>334</v>
+        <v>325</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="7">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>341</v>
+        <v>329</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H121" s="14"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="7">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>362</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" spans="1:8" ht="105.75" thickBot="1">
       <c r="A123" s="7">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>350</v>
+        <v>341</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="60.75" thickBot="1">
+        <v>401</v>
+      </c>
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:8" ht="105.75" thickBot="1">
       <c r="A124" s="7">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B124" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H124" s="14"/>
+    </row>
+    <row r="125" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A125" s="7">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H125" s="14"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A126" s="7">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H126" s="14"/>
+    </row>
+    <row r="127" spans="1:8" ht="75.75" thickBot="1">
+      <c r="A127" s="7">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H127" s="14"/>
+    </row>
+    <row r="128" spans="1:8" ht="90.75" thickBot="1">
+      <c r="A128" s="7">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H128" s="14"/>
+    </row>
+    <row r="129" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A129" s="7">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A130" s="7">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>67</v>
+      <c r="D130" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4703,13 +5629,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="53">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" thickBot="1">
+      <c r="A8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="57">
+        <v>7</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0</v>
+      </c>
+      <c r="E9" s="57">
+        <v>0</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0</v>
+      </c>
+      <c r="G9" s="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="60">
+        <v>7</v>
+      </c>
+      <c r="D10" s="60">
+        <v>0</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0</v>
+      </c>
+      <c r="F10" s="60">
+        <v>0</v>
+      </c>
+      <c r="G10" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="60">
+        <v>11</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0</v>
+      </c>
+      <c r="G11" s="60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="60">
+        <v>12</v>
+      </c>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0</v>
+      </c>
+      <c r="G12" s="60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="60">
+        <v>6</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="60">
+        <v>3</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="F14" s="60">
+        <v>0</v>
+      </c>
+      <c r="G14" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="60">
+        <v>11</v>
+      </c>
+      <c r="D15" s="60">
+        <v>0</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0</v>
+      </c>
+      <c r="G15" s="60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="60">
+        <v>10</v>
+      </c>
+      <c r="D16" s="60">
+        <v>0</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="F16" s="60">
+        <v>0</v>
+      </c>
+      <c r="G16" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="60">
+        <v>19</v>
+      </c>
+      <c r="D17" s="60">
+        <v>0</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="60">
+        <v>0</v>
+      </c>
+      <c r="G17" s="60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="60">
+        <v>14</v>
+      </c>
+      <c r="D18" s="60">
+        <v>0</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="60">
+        <v>0</v>
+      </c>
+      <c r="G18" s="60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="61">
+        <v>96</v>
+      </c>
+      <c r="D19" s="61">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61">
+        <v>0</v>
+      </c>
+      <c r="F19" s="61">
+        <v>0</v>
+      </c>
+      <c r="G19" s="61">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="44"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="38"/>
+      <c r="B21" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="48">
+        <f>(C19+D19)*100/(G19)</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="38"/>
+      <c r="B22" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48">
+        <f>C19*100/(G19)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PSM_SystemTestCases.xlsx
+++ b/PSM_SystemTestCases.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="STC" sheetId="1" r:id="rId1"/>
+    <sheet name="System Test Case" sheetId="1" r:id="rId1"/>
     <sheet name="Test Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="417">
   <si>
     <t>1. Login form</t>
   </si>
@@ -706,10 +705,6 @@
 Clear all field.</t>
   </si>
   <si>
-    <t>" Câu nói của Studio không thể để trống"
-" Ảnh câu nói link không thể để trống "</t>
-  </si>
-  <si>
     <t>STC-045</t>
   </si>
   <si>
@@ -859,10 +854,6 @@
     <t>Error notification : 
 " Mật khẩu không được để trống"
 " Phải chọn một Studio "</t>
-  </si>
-  <si>
-    <t>Error notification : 
-" Mật khẩu phải từ 6 ~ 32 kí tự"</t>
   </si>
   <si>
     <t>Error notification : 
@@ -880,14 +871,6 @@
   </si>
   <si>
     <t>Error notification : 
-" Tên Studio phải từ 6 ~ 32 kí tự "
-" Địa chỉ Studio phải từ 6 ~ 32 kí tự "
-" Studio Mail phải từ 6 ~ 32 kí tựg "
-" Số ĐT Studio phải từ 10 ~ 12 kí tự "
-" Tọa độ Studio phải từ 6 ~ 32 kí tự "</t>
-  </si>
-  <si>
-    <t>Error notification : 
 " Studio Mail không hợp lệ "
 " Số ĐT Studio không hợp lệ "
 " Tọa độ Studio không hợp lệ "</t>
@@ -902,14 +885,6 @@
   </si>
   <si>
     <t>Error notification : 
-" Tên Studio phải từ 6 ~ 32 kí tự "
-" Địa chỉ Studio phải từ 6 ~ 32 kí tự "
-" Studio Mail phải từ 6 ~ 32 kí tự "
-" Số ĐT Studio phải từ 10 ~ 12 kí tự "
-" Tọa độ Studio phải từ 6 ~ 32 kí tự "</t>
-  </si>
-  <si>
-    <t>Error notification : 
 " Tên Quận / Huyện không thể để trống "</t>
   </si>
   <si>
@@ -919,32 +894,6 @@
   <si>
     <t>Error notification : 
 " Tên Quận / Huyện không được chứa số "</t>
-  </si>
-  <si>
-    <t>Error notification : 
-" Tên Studio không thể để trống "
-" Studio Icon link không thể để trống "
-" Địa chỉ Studio không thể để trống"
-" Email Studio không thể để trống"
-" Số ĐT Studio không thể để trống "
-"  Tọa Độ Studio không thể để trống "
-"  Ảnh nền chính link không thể để trống "
-" Ảnh Project 1 link không thể để trống "
-" Ảnh Project 2 link không thể để trống "
-" Ảnh Project 3 link không thể để trống "
-" Ảnh Project 4 link không thể để trống "
-" Ảnh Project 5 link không thể để trống "
-" Ảnh Project 6 link không thể để trống "
-" Ảnh Project 7 link không thể để trống "
-"Ảnh giới thiệu link không thể để trống "</t>
-  </si>
-  <si>
-    <t>Error notification : 
-" Tên Studio phải từ 6 tới 32 kí tự "
-" Địa chỉ Studio phải từ 6 tới 32 kí tự "
-" Email Studio phải từ 6 tới 32 kí tự"
-" Số ĐT Studio phải từ 6 tới 32 kí tự "
-"  Tọa Độ Studio phải từ 6 tới 32 kí tự "</t>
   </si>
   <si>
     <t>Error notification : 
@@ -996,11 +945,6 @@
     <t>1. Enter " a " character on Tên gói chụp ảnh field.
 2. Enter " a " character on Giá gói chụp ảnh field.
 4. Click on Add button.</t>
-  </si>
-  <si>
-    <t>Error notification : 
-" Tên gói chụp ảnh phải từ 6 ~ 32 kí tự "
-" Giá gói chụp ảnh phải là số "</t>
   </si>
   <si>
     <t xml:space="preserve">Add Package : 
@@ -1082,17 +1026,6 @@
   </si>
   <si>
     <t>STC-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Package
-</t>
-  </si>
-  <si>
-    <t>1. Click on Delete  button.</t>
-  </si>
-  <si>
-    <t>Successful notification : 
-" Xóa gói chụp ảnh thành công"</t>
   </si>
   <si>
     <t>STC-058</t>
@@ -1787,11 +1720,64 @@
   <si>
     <t>Contract Management</t>
   </si>
+  <si>
+    <t>Error notification : 
+" Mật khẩu phải từ 6 kí tự trở lên"</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Số ĐT Studio phải từ 8 ~ 12 kí tự "</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Số ĐT Studio phải từ 8 ~ 12 kí tự "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error notification : 
+" Tên Studio không thể để trống "
+" Địa chỉ Studio không thể để trống"
+" Email Studio không thể để trống"
+" Số ĐT Studio không thể để trống "
+"  Tọa Độ Studio không thể để trống "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error notification : 
+" Tên Studio không thể để trống "
+" Địa chỉ Studio không thể để trống"
+" Email Studio không thể để trống"
+" Số ĐT Studio không thể để trống "
+"  Tọa Độ Studio không thể để trống "
+</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Số ĐT Studio phải từ 8 tới 12 kí tự "</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Giá gói chụp ảnh phải là số "</t>
+  </si>
+  <si>
+    <t>Error notification : 
+" Số ĐT KH từ 8 tới 12 kí tự "
+" Chi tiết sản phẩm không thể để trống "
+" Chi tiết hợp đồng không thể để trống "</t>
+  </si>
+  <si>
+    <t>STC-097</t>
+  </si>
+  <si>
+    <t>STC-098</t>
+  </si>
+  <si>
+    <t>STC-099</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -2213,7 +2199,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2285,11 +2271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2355,14 +2336,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2394,6 +2373,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2402,6 +2387,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2480,6 +2470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2514,6 +2505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2689,11 +2681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2733,7 +2725,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2753,13 +2745,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>33</v>
@@ -2780,13 +2772,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>33</v>
@@ -2807,13 +2799,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>33</v>
@@ -2834,13 +2826,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="G6" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>33</v>
@@ -2861,13 +2853,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>33</v>
@@ -2888,13 +2880,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>33</v>
@@ -2921,7 +2913,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>32</v>
@@ -2956,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>4</v>
@@ -2976,13 +2968,13 @@
         <v>37</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>35</v>
@@ -3003,13 +2995,13 @@
         <v>39</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>35</v>
@@ -3030,13 +3022,13 @@
         <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="G15" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>35</v>
@@ -3057,13 +3049,13 @@
         <v>45</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>35</v>
@@ -3084,13 +3076,13 @@
         <v>48</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>35</v>
@@ -3111,13 +3103,13 @@
         <v>51</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>35</v>
@@ -3144,7 +3136,7 @@
         <v>55</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>35</v>
@@ -3153,7 +3145,7 @@
     <row r="21" spans="1:8" ht="27" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="16" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25" thickBot="1">
@@ -3176,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>4</v>
@@ -3202,7 +3194,7 @@
         <v>57</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>61</v>
@@ -3223,13 +3215,13 @@
         <v>109</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>111</v>
@@ -3256,7 +3248,7 @@
         <v>62</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>61</v>
@@ -3277,13 +3269,13 @@
         <v>78</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H26" s="14"/>
     </row>
@@ -3302,13 +3294,13 @@
         <v>79</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H27" s="14"/>
     </row>
@@ -3327,13 +3319,13 @@
         <v>80</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -3352,13 +3344,13 @@
         <v>81</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H29" s="14"/>
     </row>
@@ -3383,7 +3375,7 @@
         <v>76</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -3402,13 +3394,13 @@
         <v>84</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H31" s="14"/>
     </row>
@@ -3427,13 +3419,13 @@
         <v>87</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -3458,14 +3450,14 @@
         <v>92</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H33" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="27" thickBot="1">
       <c r="B35" s="12"/>
       <c r="C35" s="16" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.25" thickBot="1">
@@ -3488,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>4</v>
@@ -3514,7 +3506,7 @@
         <v>96</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>94</v>
@@ -3535,13 +3527,13 @@
         <v>109</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>112</v>
@@ -3568,7 +3560,7 @@
         <v>114</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>94</v>
@@ -3589,13 +3581,13 @@
         <v>116</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H40" s="14"/>
     </row>
@@ -3614,13 +3606,13 @@
         <v>118</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -3639,13 +3631,13 @@
         <v>120</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H42" s="14"/>
     </row>
@@ -3670,7 +3662,7 @@
         <v>123</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -3689,13 +3681,13 @@
         <v>125</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H44" s="14"/>
     </row>
@@ -3714,13 +3706,13 @@
         <v>127</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H45" s="14"/>
     </row>
@@ -3739,13 +3731,13 @@
         <v>129</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H46" s="14"/>
     </row>
@@ -3770,7 +3762,7 @@
         <v>132</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H47" s="14"/>
     </row>
@@ -3795,14 +3787,14 @@
         <v>136</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H48" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="79.5" thickBot="1">
       <c r="B50" s="12"/>
       <c r="C50" s="18" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="26.25" thickBot="1">
@@ -3825,7 +3817,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>4</v>
@@ -3833,8 +3825,7 @@
     </row>
     <row r="52" spans="1:8" ht="45.75" thickBot="1">
       <c r="A52" s="7">
-        <f>A48+1</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>137</v>
@@ -3850,14 +3841,14 @@
         <v>139</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="90.75" thickBot="1">
       <c r="A53" s="7">
         <f>A52+1</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>140</v>
@@ -3869,20 +3860,20 @@
         <v>142</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" ht="90.75" thickBot="1">
       <c r="A54" s="7">
         <f>A53+1</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>143</v>
@@ -3894,20 +3885,20 @@
         <v>145</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="105.75" thickBot="1">
       <c r="A55" s="7">
         <f>A54+1</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>146</v>
@@ -3919,20 +3910,20 @@
         <v>148</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" ht="105.75" thickBot="1">
       <c r="A56" s="7">
         <f>A55+1</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>149</v>
@@ -3950,14 +3941,14 @@
         <v>152</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" ht="30.75" thickBot="1">
       <c r="A57" s="7">
         <f>A56+1</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>153</v>
@@ -3975,18 +3966,18 @@
         <v>156</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="G58" s="65"/>
+      <c r="G58" s="60"/>
     </row>
     <row r="59" spans="1:8" ht="79.5" thickBot="1">
       <c r="C59" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="G59" s="66"/>
+        <v>395</v>
+      </c>
+      <c r="G59" s="61"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="13" t="s">
@@ -4007,14 +3998,14 @@
       <c r="F60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="63" t="s">
-        <v>401</v>
+      <c r="G60" s="58" t="s">
+        <v>391</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="255">
+    <row r="61" spans="1:8" ht="120.75" thickBot="1">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -4028,114 +4019,127 @@
         <v>125</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="H61" s="64"/>
-    </row>
-    <row r="62" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="26"/>
-    </row>
-    <row r="63" spans="1:8" ht="240.75" thickBot="1">
-      <c r="A63" s="7">
+        <v>391</v>
+      </c>
+      <c r="H61" s="59"/>
+    </row>
+    <row r="62" spans="1:8" ht="240.75" thickBot="1">
+      <c r="A62" s="7">
         <f>A61+1</f>
         <v>2</v>
       </c>
+      <c r="B62" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" ht="150.75" thickBot="1">
+      <c r="A63" s="7">
+        <f>A62+1</f>
+        <v>3</v>
+      </c>
       <c r="B63" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>205</v>
+        <v>163</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" ht="150.75" thickBot="1">
-      <c r="A64" s="7">
-        <f>A63+1</f>
+    <row r="65" spans="1:8" ht="79.5" thickBot="1">
+      <c r="C65" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A66" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="28" t="s">
+      <c r="E66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A67" s="7">
+        <v>1</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="66" spans="1:8" ht="79.5" thickBot="1">
-      <c r="C66" s="29" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A67" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A68" s="7">
+        <f>A67+1</f>
         <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A68" s="7">
-        <v>1</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>166</v>
@@ -4144,16 +4148,16 @@
         <v>169</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>174</v>
@@ -4161,8 +4165,8 @@
     </row>
     <row r="69" spans="1:8" ht="60.75" thickBot="1">
       <c r="A69" s="7">
-        <f>A68+1</f>
-        <v>2</v>
+        <f t="shared" ref="A69:A76" si="5">A68+1</f>
+        <v>3</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>167</v>
@@ -4171,402 +4175,404 @@
         <v>170</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E69" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="180.75" thickBot="1">
+      <c r="A70" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F70" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A70" s="7">
-        <f t="shared" ref="A70:A78" si="5">A69+1</f>
-        <v>3</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="G70" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="180.75" thickBot="1">
+        <v>391</v>
+      </c>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:8" ht="105.75" thickBot="1">
       <c r="A71" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="1:8" ht="105.75" thickBot="1">
+    <row r="72" spans="1:8" ht="60.75" thickBot="1">
       <c r="A72" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8" ht="60.75" thickBot="1">
+    <row r="73" spans="1:8" ht="165.75" thickBot="1">
       <c r="A73" s="7">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="1:8" ht="165.75" thickBot="1">
+    <row r="74" spans="1:8" ht="90.75" thickBot="1">
       <c r="A74" s="7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8" ht="90.75" thickBot="1">
+    <row r="75" spans="1:8" ht="105.75" thickBot="1">
       <c r="A75" s="7">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8" ht="105.75" thickBot="1">
+    <row r="76" spans="1:8" ht="150.75" thickBot="1">
       <c r="A76" s="7">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="1:8" ht="79.5" thickBot="1">
+      <c r="C78" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A80" s="7">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A81" s="7">
+        <f>A80+1</f>
+        <v>2</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C81" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A82" s="7">
+        <f t="shared" ref="A82:A89" si="6">A81+1</f>
+        <v>3</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="C82" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A83" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E76" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H76" s="14"/>
-    </row>
-    <row r="77" spans="1:8" ht="150.75" thickBot="1">
-      <c r="A77" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H77" s="14"/>
-    </row>
-    <row r="78" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A78" s="7">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="C83" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="D79" s="30"/>
-    </row>
-    <row r="80" spans="1:8" ht="79.5" thickBot="1">
-      <c r="C80" s="18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A81" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A82" s="7">
-        <v>1</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="G83" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H83" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A83" s="7">
-        <f>A82+1</f>
-        <v>2</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="60.75" thickBot="1">
       <c r="A84" s="7">
-        <f t="shared" ref="A84:A91" si="6">A83+1</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="45.75" thickBot="1">
+    <row r="85" spans="1:8" ht="60.75" thickBot="1">
       <c r="A85" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>169</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="60.75" thickBot="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45.75" thickBot="1">
       <c r="A86" s="7">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>244</v>
@@ -4575,1050 +4581,996 @@
         <v>244</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="60.75" thickBot="1">
       <c r="A87" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="45.75" thickBot="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="60.75" thickBot="1">
       <c r="A88" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="F88" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="60.75" thickBot="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="105.75" thickBot="1">
       <c r="A89" s="7">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="F89" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="91" spans="1:8" ht="79.5" thickBot="1">
+      <c r="C91" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A92" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A93" s="7">
+        <v>1</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A94" s="7">
+        <f>A93+1</f>
+        <v>2</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="C94" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A95" s="7">
+        <f t="shared" ref="A95:A107" si="7">A94+1</f>
+        <v>3</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E95" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A96" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H89" s="11" t="s">
+      <c r="D96" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A90" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A91" s="7">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="93" spans="1:8" ht="79.5" thickBot="1">
-      <c r="C93" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A94" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A95" s="7">
-        <v>1</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A96" s="7">
-        <f>A95+1</f>
-        <v>2</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="F96" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="60.75" thickBot="1">
       <c r="A97" s="7">
-        <f t="shared" ref="A97:A109" si="7">A96+1</f>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="45.75" thickBot="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="60.75" thickBot="1">
       <c r="A98" s="7">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="60.75" thickBot="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="45.75" thickBot="1">
       <c r="A99" s="7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="60.75" thickBot="1">
       <c r="A100" s="7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45.75" thickBot="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="60.75" thickBot="1">
       <c r="A101" s="7">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C101" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>269</v>
-      </c>
       <c r="F101" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="60.75" thickBot="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="409.6" thickBot="1">
       <c r="A102" s="7">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="60.75" thickBot="1">
+        <v>391</v>
+      </c>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" ht="300.75" thickBot="1">
       <c r="A103" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="409.6" thickBot="1">
+        <v>391</v>
+      </c>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:8" ht="165.75" thickBot="1">
       <c r="A104" s="7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="1:8" ht="300.75" thickBot="1">
+    <row r="105" spans="1:8" ht="165.75" thickBot="1">
       <c r="A105" s="7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="E105" s="11" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8" ht="165.75" thickBot="1">
+    <row r="106" spans="1:8" ht="315.75" thickBot="1">
       <c r="A106" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B106" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="E106" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>297</v>
-      </c>
       <c r="F106" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8" ht="165.75" thickBot="1">
+    <row r="107" spans="1:8" ht="409.6" thickBot="1">
       <c r="A107" s="7">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B107" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="E107" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8" ht="300.75" thickBot="1">
+      <c r="A108" s="7">
+        <f>A107+1</f>
+        <v>16</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="1:8" ht="165.75" thickBot="1">
+      <c r="A109" s="7">
+        <f>A108+1</f>
+        <v>17</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="1:8" ht="315.75" thickBot="1">
-      <c r="A108" s="7">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H108" s="14"/>
-    </row>
-    <row r="109" spans="1:8" ht="409.6" thickBot="1">
-      <c r="A109" s="7">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="C109" s="10" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" ht="300.75" thickBot="1">
+    <row r="110" spans="1:8" ht="165.75" thickBot="1">
       <c r="A110" s="7">
         <f>A109+1</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="1:8" ht="165.75" thickBot="1">
+    <row r="111" spans="1:8" ht="315.75" thickBot="1">
       <c r="A111" s="7">
         <f>A110+1</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="113" spans="1:8" ht="79.5" thickBot="1">
+      <c r="C113" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A114" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="90.75" thickBot="1">
+      <c r="A115" s="7">
+        <v>1</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A116" s="7">
+        <f t="shared" ref="A116:A128" si="8">A115+1</f>
+        <v>2</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H111" s="14"/>
-    </row>
-    <row r="112" spans="1:8" ht="165.75" thickBot="1">
-      <c r="A112" s="7">
-        <f>A111+1</f>
-        <v>18</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H112" s="14"/>
-    </row>
-    <row r="113" spans="1:8" ht="315.75" thickBot="1">
-      <c r="A113" s="7">
-        <f>A112+1</f>
-        <v>19</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="F116" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A117" s="7">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E113" s="11" t="s">
+      <c r="D117" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H113" s="14"/>
-    </row>
-    <row r="115" spans="1:8" ht="53.25" thickBot="1">
-      <c r="C115" s="18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A116" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A117" s="7">
-        <v>1</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="E117" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>316</v>
-      </c>
       <c r="F117" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="7">
-        <f t="shared" ref="A118:A130" si="8">A117+1</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="E118" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="F118" s="11" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" ht="45.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="7">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1">
       <c r="A120" s="7">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="105.75" thickBot="1">
       <c r="A121" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="105.75" thickBot="1">
       <c r="A122" s="7">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" ht="105.75" thickBot="1">
       <c r="A123" s="7">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" ht="105.75" thickBot="1">
+    <row r="124" spans="1:8" ht="15.75" thickBot="1">
       <c r="A124" s="7">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" ht="105.75" thickBot="1">
+    <row r="125" spans="1:8" ht="75.75" thickBot="1">
       <c r="A125" s="7">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="90.75" thickBot="1">
       <c r="A126" s="7">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:8" ht="75.75" thickBot="1">
+    <row r="127" spans="1:8" ht="105.75" thickBot="1">
       <c r="A127" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>343</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H127" s="14"/>
-    </row>
-    <row r="128" spans="1:8" ht="90.75" thickBot="1">
+        <v>391</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="105.75" thickBot="1">
       <c r="A128" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="C128" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>353</v>
-      </c>
       <c r="F128" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H128" s="14"/>
-    </row>
-    <row r="129" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A129" s="7">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A130" s="7">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>361</v>
+        <v>391</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5628,11 +5580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5644,391 +5596,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" thickBot="1">
+      <c r="A8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69" t="s">
+      <c r="F8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="31" t="s">
+      <c r="J8" s="47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="65">
+        <v>1</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="53">
+        <v>7</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53">
+        <f>SUM(C9:F9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A10" s="66">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="55">
+        <v>7</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
+        <f t="shared" ref="G10:G18" si="0">SUM(C10:F10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="66">
+        <f t="shared" ref="A11:A18" si="1">A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="55">
+        <v>11</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="55">
+        <v>12</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="55">
+        <v>6</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A14" s="66">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="55">
+        <v>3</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="66">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="55">
+        <v>10</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="66">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="55">
+        <v>10</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A17" s="66">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="55">
+        <v>19</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A18" s="66">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="55">
+        <v>14</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="69" t="s">
+      <c r="C19" s="56">
+        <f>SUM(C9:C18)</f>
+        <v>99</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56">
+        <f>SUM(G9:G18)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="41"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="53">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" ht="29.25" thickBot="1">
-      <c r="A8" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="57">
-        <v>7</v>
-      </c>
-      <c r="D9" s="57">
-        <v>0</v>
-      </c>
-      <c r="E9" s="57">
-        <v>0</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0</v>
-      </c>
-      <c r="G9" s="57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="60">
-        <v>7</v>
-      </c>
-      <c r="D10" s="60">
-        <v>0</v>
-      </c>
-      <c r="E10" s="60">
-        <v>0</v>
-      </c>
-      <c r="F10" s="60">
-        <v>0</v>
-      </c>
-      <c r="G10" s="60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="60">
-        <v>11</v>
-      </c>
-      <c r="D11" s="60">
-        <v>0</v>
-      </c>
-      <c r="E11" s="60">
-        <v>0</v>
-      </c>
-      <c r="F11" s="60">
-        <v>0</v>
-      </c>
-      <c r="G11" s="60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="60">
-        <v>12</v>
-      </c>
-      <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="60">
-        <v>0</v>
-      </c>
-      <c r="F12" s="60">
-        <v>0</v>
-      </c>
-      <c r="G12" s="60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="60">
-        <v>6</v>
-      </c>
-      <c r="D13" s="60">
-        <v>0</v>
-      </c>
-      <c r="E13" s="60">
-        <v>0</v>
-      </c>
-      <c r="F13" s="60">
-        <v>0</v>
-      </c>
-      <c r="G13" s="60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="60">
-        <v>3</v>
-      </c>
-      <c r="D14" s="60">
-        <v>0</v>
-      </c>
-      <c r="E14" s="60">
-        <v>0</v>
-      </c>
-      <c r="F14" s="60">
-        <v>0</v>
-      </c>
-      <c r="G14" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="60">
-        <v>11</v>
-      </c>
-      <c r="D15" s="60">
-        <v>0</v>
-      </c>
-      <c r="E15" s="60">
-        <v>0</v>
-      </c>
-      <c r="F15" s="60">
-        <v>0</v>
-      </c>
-      <c r="G15" s="60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="60">
-        <v>10</v>
-      </c>
-      <c r="D16" s="60">
-        <v>0</v>
-      </c>
-      <c r="E16" s="60">
-        <v>0</v>
-      </c>
-      <c r="F16" s="60">
-        <v>0</v>
-      </c>
-      <c r="G16" s="60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" s="60">
-        <v>19</v>
-      </c>
-      <c r="D17" s="60">
-        <v>0</v>
-      </c>
-      <c r="E17" s="60">
-        <v>0</v>
-      </c>
-      <c r="F17" s="60">
-        <v>0</v>
-      </c>
-      <c r="G17" s="60">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="60">
-        <v>14</v>
-      </c>
-      <c r="D18" s="60">
-        <v>0</v>
-      </c>
-      <c r="E18" s="60">
-        <v>0</v>
-      </c>
-      <c r="F18" s="60">
-        <v>0</v>
-      </c>
-      <c r="G18" s="60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="61">
-        <v>96</v>
-      </c>
-      <c r="D19" s="61">
-        <v>0</v>
-      </c>
-      <c r="E19" s="61">
-        <v>0</v>
-      </c>
-      <c r="F19" s="61">
-        <v>0</v>
-      </c>
-      <c r="G19" s="61">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="44"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="38"/>
-      <c r="B21" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="48">
+      <c r="C21" s="35"/>
+      <c r="D21" s="45">
         <f>(C19+D19)*100/(G19)</f>
         <v>100</v>
       </c>
-      <c r="E21" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="49"/>
+      <c r="E21" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48">
+      <c r="A22" s="35"/>
+      <c r="B22" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="45">
         <f>C19*100/(G19)</f>
         <v>100</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6042,16 +6035,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PSM_SystemTestCases.xlsx
+++ b/PSM_SystemTestCases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8520" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="System Test Case" sheetId="1" r:id="rId1"/>
     <sheet name="Test Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="418">
   <si>
     <t>1. Login form</t>
   </si>
@@ -1773,11 +1773,14 @@
   <si>
     <t>STC-099</t>
   </si>
+  <si>
+    <t>Not Tested</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -2364,6 +2367,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2372,12 +2381,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2470,7 +2473,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2505,7 +2507,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2681,11 +2682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5490,7 +5491,7 @@
         <v>334</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="H125" s="14"/>
     </row>
@@ -5580,11 +5581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5599,14 +5600,14 @@
       <c r="A1" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="51"/>
       <c r="G1" s="29" t="s">
         <v>383</v>
@@ -5620,10 +5621,10 @@
         <v>384</v>
       </c>
       <c r="C2" s="49"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="51"/>
       <c r="G2" s="29" t="s">
         <v>385</v>
@@ -5633,14 +5634,14 @@
       <c r="A3" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="51"/>
       <c r="G3" s="50">
         <v>43188</v>
@@ -5650,12 +5651,12 @@
       <c r="A4" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="31"/>
@@ -5711,7 +5712,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="65">
+      <c r="A9" s="62">
         <v>1</v>
       </c>
       <c r="B9" s="52" t="s">
@@ -5735,7 +5736,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10" s="66">
+      <c r="A10" s="63">
         <f>A9+1</f>
         <v>2</v>
       </c>
@@ -5760,7 +5761,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="66">
+      <c r="A11" s="63">
         <f t="shared" ref="A11:A18" si="1">A10+1</f>
         <v>3</v>
       </c>
@@ -5785,7 +5786,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="66">
+      <c r="A12" s="63">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5810,7 +5811,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="66">
+      <c r="A13" s="63">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5835,7 +5836,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="66">
+      <c r="A14" s="63">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5860,7 +5861,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="66">
+      <c r="A15" s="63">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5885,7 +5886,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="66">
+      <c r="A16" s="63">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5910,7 +5911,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="66">
+      <c r="A17" s="63">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5935,7 +5936,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="66">
+      <c r="A18" s="63">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5943,13 +5944,13 @@
         <v>389</v>
       </c>
       <c r="C18" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="55">
         <v>0</v>
       </c>
       <c r="E18" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="55">
         <v>0</v>
@@ -5966,13 +5967,15 @@
       </c>
       <c r="C19" s="56">
         <f>SUM(C9:C18)</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="56">
+        <f>SUM(D9:D18)</f>
         <v>0</v>
       </c>
       <c r="E19" s="56">
-        <v>0</v>
+        <f>SUM(E9:E18)</f>
+        <v>1</v>
       </c>
       <c r="F19" s="56">
         <v>0</v>
@@ -5999,7 +6002,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="45">
         <f>(C19+D19)*100/(G19)</f>
-        <v>100</v>
+        <v>98.98989898989899</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>379</v>
@@ -6015,7 +6018,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="45">
         <f>C19*100/(G19)</f>
-        <v>100</v>
+        <v>98.98989898989899</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>379</v>
